--- a/data/trans_camb/P32A-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Clase-trans_camb.xlsx
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3036237399616604</v>
+        <v>0.3245957380459815</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3210145259354054</v>
+        <v>-0.3146998767243085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4362431944301424</v>
+        <v>0.4001637685156849</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3154079804869019</v>
+        <v>0.3198668585831409</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3042021894852109</v>
+        <v>0.2889416276775574</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2248470142670088</v>
+        <v>0.1958989830045527</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4844319081729563</v>
+        <v>0.5318109847326464</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.968109782142863</v>
+        <v>3.76379962162632</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.392772770981313</v>
+        <v>2.434490051602475</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.875212189956777</v>
+        <v>4.09278043506437</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.977711058089453</v>
+        <v>2.732413624678424</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.584125245234524</v>
+        <v>6.797604534848195</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.747283540907277</v>
+        <v>3.930923059342816</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.789620847088284</v>
+        <v>2.738115424081587</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.860362033998367</v>
+        <v>2.684843637089599</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.840493311244217</v>
+        <v>3.042111686478821</v>
       </c>
     </row>
     <row r="7">
@@ -839,7 +839,7 @@
         <v>2.217079127270675</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.820634380324253</v>
+        <v>2.820634380324252</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.5607330709995114</v>
@@ -848,7 +848,7 @@
         <v>0.8912734201385176</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.9845051945798935</v>
+        <v>0.9845051945798938</v>
       </c>
     </row>
     <row r="11">
@@ -859,31 +859,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.903981055016425</v>
+        <v>-1.873716318817778</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.389479120064189</v>
+        <v>-2.335796430961984</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.314125150759475</v>
+        <v>-2.164369032977947</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5216910608851806</v>
+        <v>0.6279955930300187</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.011121455994773</v>
+        <v>1.060573495713469</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.8208612141386349</v>
+        <v>-0.8478085885828768</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.6169742747661984</v>
+        <v>-0.7616188028522314</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.4660104562660728</v>
+        <v>-0.4051840868924885</v>
       </c>
     </row>
     <row r="12">
@@ -894,31 +894,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.60960290128774</v>
+        <v>3.175540362226095</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.97797432307124</v>
+        <v>2.033707337107417</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.835480047887063</v>
+        <v>1.895790681460267</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.242279437430184</v>
+        <v>4.182393266631385</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.426249923274868</v>
+        <v>5.399979834664004</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.682082649982028</v>
+        <v>5.839634367551098</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.494878527312616</v>
+        <v>2.575741103127937</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.499389428664169</v>
+        <v>2.375417095829631</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.494592925773536</v>
+        <v>2.665835104336823</v>
       </c>
     </row>
     <row r="13">
@@ -959,7 +959,7 @@
         <v>1.086015978269086</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.19961882385824</v>
+        <v>1.199618823858241</v>
       </c>
     </row>
     <row r="14">
@@ -977,10 +977,10 @@
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.6455494291402676</v>
+        <v>-0.7190565908159487</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4983017197492006</v>
+        <v>-0.4785546615319612</v>
       </c>
     </row>
     <row r="15">
@@ -998,11 +998,9 @@
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>9.055327891466728</v>
-      </c>
-      <c r="K15" s="6" t="n">
-        <v>10.1677659720508</v>
-      </c>
+        <v>9.182244310978728</v>
+      </c>
+      <c r="K15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1022,7 +1020,7 @@
         <v>0.9258027013846908</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4650069468747908</v>
+        <v>0.4650069468747902</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -1040,7 +1038,7 @@
         <v>1.09599364670319</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.3654406289993224</v>
+        <v>0.3654406289993221</v>
       </c>
     </row>
     <row r="17">
@@ -1051,13 +1049,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.0282292206597893</v>
+        <v>-0.1148285463823491</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7954290106844949</v>
+        <v>-1.009711862953908</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.41770366373951</v>
+        <v>-1.52872730589111</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
@@ -1065,13 +1063,13 @@
       </c>
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="n">
-        <v>0.003285324071969929</v>
+        <v>-0.02307308796340278</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.542673147606974</v>
+        <v>-0.5279613757785966</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.326057173790848</v>
+        <v>-1.283032312716261</v>
       </c>
     </row>
     <row r="18">
@@ -1082,27 +1080,27 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.982032017251939</v>
+        <v>4.946541328944898</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.222630919570415</v>
+        <v>3.080677705530177</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.699941349984169</v>
+        <v>2.72869620249705</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>10.17307998436694</v>
+        <v>8.546640580033266</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>4.08895582817107</v>
+        <v>3.991957283971634</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.198962305740132</v>
+        <v>3.059597308728689</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.071649584167725</v>
+        <v>2.270897876461286</v>
       </c>
     </row>
     <row r="19">
@@ -1119,7 +1117,7 @@
         <v>0.6833168494320109</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3432125240369652</v>
+        <v>0.3432125240369647</v>
       </c>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="inlineStr">
@@ -1135,7 +1133,7 @@
         <v>0.9564364978223648</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3189076473330771</v>
+        <v>0.3189076473330769</v>
       </c>
     </row>
     <row r="20">
@@ -1146,23 +1144,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1771615901776904</v>
+        <v>-0.2718786407821597</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5390419480021552</v>
-      </c>
-      <c r="E20" s="6" t="inlineStr"/>
+        <v>-0.6661661261538492</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.7924869371056351</v>
+      </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.1943777919309348</v>
+        <v>-0.2059745938210837</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4829604661574684</v>
+        <v>-0.458282392636844</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.8099311664660945</v>
+        <v>-0.7904040743587963</v>
       </c>
     </row>
     <row r="21">
@@ -1173,23 +1173,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>9.301467514861637</v>
+        <v>8.379833304022128</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>8.295264668206782</v>
-      </c>
-      <c r="E21" s="6" t="inlineStr"/>
+        <v>4.966820260605054</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>5.294679575664815</v>
+      </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>9.710907073344924</v>
+        <v>9.010324960506084</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>7.635118820030092</v>
+        <v>6.436730261101114</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>4.296604485217236</v>
+        <v>5.225679599904795</v>
       </c>
     </row>
     <row r="22">
@@ -1239,13 +1241,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5708922617547183</v>
+        <v>-0.5063049884447914</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.128040428261984</v>
+        <v>-1.070841130822727</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7152022052166369</v>
+        <v>-0.5965522837881453</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0</v>
@@ -1254,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9543727090466051</v>
+        <v>0.9940608228575534</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.4294680333822818</v>
+        <v>-0.3619289633798389</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.9146536213379032</v>
+        <v>-0.9139428531329548</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02334848195680687</v>
+        <v>-0.02926673083224187</v>
       </c>
     </row>
     <row r="24">
@@ -1274,31 +1276,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.415973225125491</v>
+        <v>2.504561855566191</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.557641377370224</v>
+        <v>1.563059527383666</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.457370956946348</v>
+        <v>2.455718471543173</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.587843329807888</v>
+        <v>2.9900070263585</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.269254380067825</v>
+        <v>1.892276960379834</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.364489731821688</v>
+        <v>6.585401861432027</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.070492427868622</v>
+        <v>2.100987599182564</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.137349760050358</v>
+        <v>1.203584959424924</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.792966743495406</v>
+        <v>2.746821215051028</v>
       </c>
     </row>
     <row r="25">
@@ -1350,25 +1352,25 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3512661831270772</v>
+        <v>-0.3362803255575719</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5489120493605759</v>
+        <v>-0.5889497083874276</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4355692839953497</v>
+        <v>-0.3520665728221439</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.2867574060873101</v>
+        <v>-0.2743085620051866</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.615051916829263</v>
+        <v>-0.5970445320280178</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08217160209729579</v>
+        <v>-0.13981992247591</v>
       </c>
     </row>
     <row r="27">
@@ -1379,25 +1381,25 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.868022780474968</v>
+        <v>3.255082247327961</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.915860161691936</v>
+        <v>1.888745381591724</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.824771623000774</v>
+        <v>3.699502677555852</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>3.708082862253216</v>
+        <v>3.163082188483774</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.733883710421155</v>
+        <v>2.006194490573689</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4.533416898550351</v>
+        <v>4.146277531694084</v>
       </c>
     </row>
     <row r="28">
@@ -1436,7 +1438,7 @@
         <v>1.294425788482222</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.7376107259322211</v>
+        <v>0.7376107259322208</v>
       </c>
     </row>
     <row r="29">
@@ -1447,31 +1449,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.07437079651592082</v>
+        <v>-0.2347486236409572</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.08759085993772106</v>
+        <v>0.07501816901799502</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.9743092890393386</v>
+        <v>-1.080791725748387</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.669967752497107</v>
+        <v>-3.074772444299803</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.588598437212445</v>
+        <v>-3.552122412232581</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.577073557964155</v>
+        <v>-2.276738725004024</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6118810989677272</v>
+        <v>-0.5983983853166015</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.29818068696472</v>
+        <v>-0.4557918537472579</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.9199917634099565</v>
+        <v>-0.906701382044928</v>
       </c>
     </row>
     <row r="30">
@@ -1482,31 +1484,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.783025901474346</v>
+        <v>4.256885904714387</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.13568337427858</v>
+        <v>5.351003697610792</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.107749004213186</v>
+        <v>2.961233690291706</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.699052227308598</v>
+        <v>1.714565420373142</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.02790418309346</v>
+        <v>1.101687101096165</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.376580337590481</v>
+        <v>2.537831895266318</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.882363363508502</v>
+        <v>2.801676727282212</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.242082048880356</v>
+        <v>3.111665173696772</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.314665555463486</v>
+        <v>2.187310073454562</v>
       </c>
     </row>
     <row r="31">
@@ -1541,7 +1543,7 @@
         <v>1.153518069929364</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.6573164012238917</v>
+        <v>0.6573164012238913</v>
       </c>
     </row>
     <row r="32">
@@ -1552,25 +1554,25 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5093390581029625</v>
+        <v>-0.4377041326765746</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3502136745291291</v>
+        <v>-0.3965695112533154</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7490846402037789</v>
+        <v>-0.8443170419824505</v>
       </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.4621691283377361</v>
+        <v>-0.4500767372084614</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3330861861772058</v>
+        <v>-0.4022784252090467</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5434687209078199</v>
+        <v>-0.5617170737799844</v>
       </c>
     </row>
     <row r="33">
@@ -1587,13 +1589,13 @@
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>7.62563060639532</v>
+        <v>7.749269113352535</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>8.270225818952117</v>
+        <v>7.331840364648642</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>6.61977499873629</v>
+        <v>6.006386157209212</v>
       </c>
     </row>
     <row r="34">
@@ -1632,7 +1634,7 @@
         <v>1.898630685914667</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.7629431319124862</v>
+        <v>0.7629431319124863</v>
       </c>
     </row>
     <row r="35">
@@ -1643,29 +1645,29 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.6649877399490889</v>
+        <v>0.6553661106091844</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.5970845861921948</v>
+        <v>0.6549701678458622</v>
       </c>
       <c r="E35" s="5" t="inlineStr"/>
       <c r="F35" s="5" t="n">
-        <v>-0.9352409754575779</v>
+        <v>-0.9176497174300537</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.1078773543359217</v>
+        <v>-0.2516198564261703</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.9207508802834573</v>
+        <v>-0.9165356848431404</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.2390981199229902</v>
+        <v>0.2029938248129948</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.6395315295714248</v>
+        <v>0.6347565057960892</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.5674604360324117</v>
+        <v>-0.5660975802217798</v>
       </c>
     </row>
     <row r="36">
@@ -1676,29 +1678,29 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.177581288469347</v>
+        <v>6.290317329246315</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.039302000052248</v>
+        <v>6.119422453193199</v>
       </c>
       <c r="E36" s="5" t="inlineStr"/>
       <c r="F36" s="5" t="n">
-        <v>3.237859125084895</v>
+        <v>3.252585259819562</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.781758327881361</v>
+        <v>3.939138619515244</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.336608107483523</v>
+        <v>7.581606408178641</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.327386082221374</v>
+        <v>3.265059413665893</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.642374625250047</v>
+        <v>3.628725501102035</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.85521827321173</v>
+        <v>4.848273074086124</v>
       </c>
     </row>
     <row r="37">
@@ -1735,7 +1737,7 @@
         <v>6.671888856762541</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>2.681022601137507</v>
+        <v>2.681022601137508</v>
       </c>
     </row>
     <row r="38">
@@ -1819,31 +1821,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.689935739268969</v>
+        <v>0.6156028286115146</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.1297096730994894</v>
+        <v>0.1073831123066768</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.04108329913504901</v>
+        <v>0.03346988457902297</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.1221644493038029</v>
+        <v>-0.07676294030320975</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.2706671517271946</v>
+        <v>0.2666907788717662</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.84159587363329</v>
+        <v>0.8085358031620119</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.5419733807227067</v>
+        <v>0.5479475212594133</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.3518005050136724</v>
+        <v>0.4222911451600749</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.4657283622399281</v>
+        <v>0.4472443203612809</v>
       </c>
     </row>
     <row r="42">
@@ -1854,31 +1856,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.406244700353424</v>
+        <v>2.381636129775946</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.712788977508262</v>
+        <v>1.706968191958368</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.542412538157844</v>
+        <v>1.608403050487436</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.347651879917467</v>
+        <v>1.325150525565117</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.916077573439999</v>
+        <v>1.872195854245857</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.975743665966542</v>
+        <v>3.069617601947876</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.78533868423682</v>
+        <v>1.853152810011554</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.534834578945387</v>
+        <v>1.55747045539263</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.732619431456494</v>
+        <v>1.714393871799841</v>
       </c>
     </row>
     <row r="43">
@@ -1904,7 +1906,7 @@
         <v>3.092704934333369</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>5.145930198629498</v>
+        <v>5.145930198629499</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>1.368780637341879</v>
@@ -1924,31 +1926,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.4626949818309087</v>
+        <v>0.4278148333177167</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.08219773750661752</v>
+        <v>0.04107778197826066</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.0601576025531435</v>
+        <v>-0.01137643937112256</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4932029900755187</v>
+        <v>-0.4826653518542303</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.06631635011455082</v>
+        <v>0.1286915151234232</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7079302397943841</v>
+        <v>0.7032705005265185</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4500924355193321</v>
+        <v>0.4388978747888335</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2943940992791284</v>
+        <v>0.3776879296803826</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3828368598349444</v>
+        <v>0.3653176675354747</v>
       </c>
     </row>
     <row r="45">
@@ -1959,31 +1961,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.966350028631622</v>
+        <v>3.270714553289912</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.20916114958738</v>
+        <v>2.235171170693203</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.036980647605763</v>
+        <v>2.259471272474928</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>12.16295372165731</v>
+        <v>11.87467321427307</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>17.16517155723487</v>
+        <v>15.21776249000245</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>23.21900470706192</v>
+        <v>23.67621917425548</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>2.935975104760792</v>
+        <v>2.924781309636771</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>2.513061887779803</v>
+        <v>2.765882307063409</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.775317947678486</v>
+        <v>2.862337274849002</v>
       </c>
     </row>
     <row r="46">
